--- a/P2/p02a results.xlsx
+++ b/P2/p02a results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredr\Dropbox\Skole\Supercomputing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fredr\Dropbox\Skole\Supercomputing\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DCD0EE2-CD74-4B62-9D38-D98E8E2C06AD}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8FE2C2-6579-4FBB-8F2F-2F35E80160DC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{FF16E779-2135-4F90-BB8C-A1F381BDE270}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179017"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="29">
   <si>
     <t>Speedup</t>
   </si>
@@ -111,6 +110,9 @@
   <si>
     <t>64GB RAM</t>
   </si>
+  <si>
+    <t>Improved openmp</t>
+  </si>
 </sst>
 </file>
 
@@ -118,7 +120,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="166" formatCode="0.000000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.000000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -149,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -166,7 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6424,6 +6429,1221 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Hybrid</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Wall Time (improved OpenMP)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>P1 t4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$W$63:$W$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$X$63:$X$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.5905950000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.616464E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.7554949999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.534694E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0115510000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6480680000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.8292549999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19265979999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.81514140000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4733100000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4801-43DC-9383-2308A52B85E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>P1 t8</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$W$63:$W$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$63:$Y$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4.7149969999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1868770000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1439979999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1067359999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8862789999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.179915E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1522620000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12057950000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47556670000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.028448</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4801-43DC-9383-2308A52B85E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>P4 t2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$W$63:$W$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$63:$Z$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2.867589E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.00133E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5440940000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.458983E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9637050000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.195673E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.188161E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12389699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.48274289999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0541700000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4801-43DC-9383-2308A52B85E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>P4 t4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$W$63:$W$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$63:$AA$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.9626270000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4748570000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4485120000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0018749999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8175210000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2482619999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.1828709999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10389080000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.36829889999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5122789999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4801-43DC-9383-2308A52B85E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>P8 t2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$W$63:$W$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AB$63:$AB$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.2186610000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2430620000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4423530000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3391080000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2920330000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6006899999999994E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.5711899999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1032430000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.31005090000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.260308</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-4801-43DC-9383-2308A52B85E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>P8 t4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$W$63:$W$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$63:$AC$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>6.9934999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5565859999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.378625E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3236309999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2212600000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.062168E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0993090000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.6056139999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.21905430000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.80405459999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4801-43DC-9383-2308A52B85E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>P16 t2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$W$63:$W$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AD$63:$AD$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.2077774</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12260790000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.4020480000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.290033E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.908383E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.4634350000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6597349999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.192496E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25671179999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83525680000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-4801-43DC-9383-2308A52B85E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>P16 t4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$W$63:$W$72</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$63:$AE$72</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.20138</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11324679999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.6158589999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7257070000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2296900000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5712120000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1674689999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.8943790000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.14738770000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.51070269999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-4801-43DC-9383-2308A52B85E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="817381920"/>
+        <c:axId val="817382904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="817381920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="817382904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="817382904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="817381920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -6664,6 +7884,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -9180,6 +10440,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9907,6 +11670,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>336175</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>11204</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DE81A13-E7A0-4C7D-AA91-5A63DFE9631B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10212,10 +12013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649E8378-01C3-4D59-B6E7-612E119ED84E}">
-  <dimension ref="A1:X44"/>
+  <dimension ref="A1:AM72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="X5" sqref="S3:X5"/>
+    <sheetView tabSelected="1" topLeftCell="U6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AF73" sqref="AF73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10234,11 +12035,11 @@
     <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
       <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
@@ -10255,26 +12056,26 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="J2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
       <c r="T2" s="1" t="s">
         <v>16</v>
       </c>
@@ -10291,7 +12092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -10316,22 +12117,22 @@
       <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5" t="s">
+      <c r="M3" s="7"/>
+      <c r="N3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5" t="s">
+      <c r="O3" s="7"/>
+      <c r="P3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="5"/>
+      <c r="Q3" s="7"/>
       <c r="T3" s="1" t="s">
         <v>22</v>
       </c>
@@ -10348,7 +12149,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -10416,7 +12217,7 @@
         <v>42.185600000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -10484,7 +12285,7 @@
         <v>1.130315E-8</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>16</v>
       </c>
@@ -10534,7 +12335,7 @@
         <v>1.098931E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>32</v>
       </c>
@@ -10584,7 +12385,7 @@
         <v>2.7349549999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>64</v>
       </c>
@@ -10634,7 +12435,7 @@
         <v>6.8296839999999997E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>128</v>
       </c>
@@ -10683,8 +12484,10 @@
       <c r="Q9" s="3">
         <v>1.7069399999999999E-4</v>
       </c>
+      <c r="AC9" s="5"/>
+      <c r="AE9" s="5"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>256</v>
       </c>
@@ -10733,8 +12536,14 @@
       <c r="Q10" s="3">
         <v>4.2670489999999997E-5</v>
       </c>
+      <c r="AC10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AM10" s="5"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>512</v>
       </c>
@@ -10783,8 +12592,12 @@
       <c r="Q11" s="3">
         <v>1.066744E-5</v>
       </c>
+      <c r="AG11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AM11" s="5"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1024</v>
       </c>
@@ -10833,8 +12646,9 @@
       <c r="Q12" s="3">
         <v>2.6668469999999998E-6</v>
       </c>
+      <c r="AE12" s="5"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2048</v>
       </c>
@@ -10883,46 +12697,66 @@
       <c r="Q13" s="3">
         <v>6.6670920000000003E-7</v>
       </c>
+      <c r="AE13" s="5"/>
+      <c r="AH13" s="5"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="J17" s="5" t="s">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AE15" s="5"/>
+      <c r="AG15" s="5"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="J17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="AE17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="J18" s="5" t="s">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="J18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5" t="s">
+      <c r="K18" s="7"/>
+      <c r="L18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5" t="s">
+      <c r="M18" s="7"/>
+      <c r="N18" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5" t="s">
+      <c r="O18" s="7"/>
+      <c r="P18" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="Q18" s="5"/>
+      <c r="Q18" s="7"/>
+      <c r="AE18" s="5"/>
+      <c r="AG18" s="5"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -10971,8 +12805,10 @@
       <c r="Q19" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="AE19" s="5"/>
+      <c r="AG19" s="5"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -11021,8 +12857,10 @@
       <c r="Q20" s="3">
         <v>0.23580039999999999</v>
       </c>
+      <c r="AE20" s="5"/>
+      <c r="AG20" s="5"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>8</v>
       </c>
@@ -11071,8 +12909,9 @@
       <c r="Q21" s="3">
         <v>0.18015320000000001</v>
       </c>
+      <c r="AG21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>16</v>
       </c>
@@ -11121,8 +12960,11 @@
       <c r="Q22" s="3">
         <v>0.1163389</v>
       </c>
+      <c r="AC22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AG22" s="5"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>32</v>
       </c>
@@ -11171,8 +13013,11 @@
       <c r="Q23" s="3">
         <v>8.7604950000000001E-2</v>
       </c>
+      <c r="AC23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AG23" s="5"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>64</v>
       </c>
@@ -11221,8 +13066,11 @@
       <c r="Q24" s="3">
         <v>7.3656579999999999E-2</v>
       </c>
+      <c r="AC24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AG24" s="5"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>128</v>
       </c>
@@ -11271,8 +13119,11 @@
       <c r="Q25" s="3">
         <v>6.4548140000000004E-2</v>
       </c>
+      <c r="AC25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AG25" s="5"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>256</v>
       </c>
@@ -11321,8 +13172,9 @@
       <c r="Q26" s="3">
         <v>7.2366120000000006E-2</v>
       </c>
+      <c r="AG26" s="5"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>512</v>
       </c>
@@ -11371,8 +13223,11 @@
       <c r="Q27" s="3">
         <v>9.1188969999999994E-2</v>
       </c>
+      <c r="AC27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AG27" s="5"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1024</v>
       </c>
@@ -11421,8 +13276,11 @@
       <c r="Q28" s="3">
         <v>0.21502560000000001</v>
       </c>
+      <c r="AC28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AG28" s="5"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2048</v>
       </c>
@@ -11471,24 +13329,47 @@
       <c r="Q29" s="3">
         <v>0.64656630000000004</v>
       </c>
+      <c r="AC29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="C33" s="5" t="s">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AC32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+    </row>
+    <row r="33" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="C33" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="J33" s="5" t="s">
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="J33" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="AC33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AG33" s="5"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
         <v>4</v>
       </c>
@@ -11525,8 +13406,12 @@
       <c r="N34" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="AC34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B35" s="1">
         <v>4</v>
       </c>
@@ -11573,8 +13458,12 @@
         <f>G35/36</f>
         <v>2.0692235706026362E-6</v>
       </c>
+      <c r="AC35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B36" s="1">
         <v>8</v>
       </c>
@@ -11621,8 +13510,10 @@
         <f t="shared" ref="N36:N44" si="9">G36/36</f>
         <v>3.7914566393947842E-6</v>
       </c>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>16</v>
       </c>
@@ -11669,8 +13560,12 @@
         <f t="shared" si="9"/>
         <v>1.6286734618439115E-5</v>
       </c>
+      <c r="AC37" s="5"/>
+      <c r="AE37" s="5"/>
+      <c r="AG37" s="5"/>
+      <c r="AH37" s="5"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>32</v>
       </c>
@@ -11717,8 +13612,11 @@
         <f t="shared" si="9"/>
         <v>8.8527659136344356E-5</v>
       </c>
+      <c r="AC38" s="5"/>
+      <c r="AE38" s="5"/>
+      <c r="AG38" s="5"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>64</v>
       </c>
@@ -11765,8 +13663,12 @@
         <f t="shared" si="9"/>
         <v>5.4756457532225712E-4</v>
       </c>
+      <c r="AC39" s="5"/>
+      <c r="AE39" s="5"/>
+      <c r="AG39" s="5"/>
+      <c r="AH39" s="5"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>128</v>
       </c>
@@ -11813,8 +13715,12 @@
         <f t="shared" si="9"/>
         <v>2.6442391031882718E-3</v>
       </c>
+      <c r="AC40" s="5"/>
+      <c r="AE40" s="5"/>
+      <c r="AG40" s="5"/>
+      <c r="AH40" s="5"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>256</v>
       </c>
@@ -11861,8 +13767,10 @@
         <f t="shared" si="9"/>
         <v>8.4188570917748153E-3</v>
       </c>
+      <c r="AG41" s="5"/>
+      <c r="AH41" s="5"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>512</v>
       </c>
@@ -11909,8 +13817,12 @@
         <f t="shared" si="9"/>
         <v>3.6246590998755907E-2</v>
       </c>
+      <c r="AC42" s="5"/>
+      <c r="AE42" s="5"/>
+      <c r="AG42" s="5"/>
+      <c r="AH42" s="5"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B43" s="1">
         <v>1024</v>
       </c>
@@ -11957,8 +13869,11 @@
         <f t="shared" si="9"/>
         <v>0.12418740149030566</v>
       </c>
+      <c r="AC43" s="5"/>
+      <c r="AE43" s="5"/>
+      <c r="AG43" s="5"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B44" s="1">
         <v>2048</v>
       </c>
@@ -12005,14 +13920,473 @@
         <f t="shared" si="9"/>
         <v>0.31630861001347443</v>
       </c>
+      <c r="AC44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+    </row>
+    <row r="45" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AC45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+    </row>
+    <row r="46" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AG46" s="5"/>
+      <c r="AH46" s="5"/>
+    </row>
+    <row r="47" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AC47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+    </row>
+    <row r="48" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="AC48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AG48" s="5"/>
+    </row>
+    <row r="49" spans="23:39" x14ac:dyDescent="0.25">
+      <c r="AC49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+    </row>
+    <row r="50" spans="23:39" x14ac:dyDescent="0.25">
+      <c r="AC50" s="5"/>
+      <c r="AE50" s="5"/>
+      <c r="AG50" s="5"/>
+      <c r="AH50" s="5"/>
+    </row>
+    <row r="51" spans="23:39" x14ac:dyDescent="0.25">
+      <c r="AG51" s="5"/>
+      <c r="AH51" s="5"/>
+    </row>
+    <row r="52" spans="23:39" x14ac:dyDescent="0.25">
+      <c r="AC52" s="5"/>
+      <c r="AE52" s="5"/>
+      <c r="AG52" s="5"/>
+      <c r="AH52" s="5"/>
+    </row>
+    <row r="53" spans="23:39" x14ac:dyDescent="0.25">
+      <c r="AC53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AG53" s="5"/>
+    </row>
+    <row r="54" spans="23:39" x14ac:dyDescent="0.25">
+      <c r="AC54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+    </row>
+    <row r="55" spans="23:39" x14ac:dyDescent="0.25">
+      <c r="AC55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+    </row>
+    <row r="56" spans="23:39" x14ac:dyDescent="0.25">
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+    </row>
+    <row r="57" spans="23:39" x14ac:dyDescent="0.25">
+      <c r="AC57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+    </row>
+    <row r="58" spans="23:39" x14ac:dyDescent="0.25">
+      <c r="AC58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AG58" s="5"/>
+      <c r="AK58" s="5"/>
+      <c r="AM58" s="5"/>
+    </row>
+    <row r="59" spans="23:39" x14ac:dyDescent="0.25">
+      <c r="W59" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+      <c r="AK59" s="5"/>
+      <c r="AM59" s="5"/>
+    </row>
+    <row r="60" spans="23:39" x14ac:dyDescent="0.25">
+      <c r="W60" s="5"/>
+      <c r="X60" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
+    </row>
+    <row r="61" spans="23:39" x14ac:dyDescent="0.25">
+      <c r="W61" s="5"/>
+      <c r="X61" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE61" s="7"/>
+      <c r="AG61" s="5"/>
+      <c r="AH61" s="5"/>
+    </row>
+    <row r="62" spans="23:39" x14ac:dyDescent="0.25">
+      <c r="W62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD62" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE62" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5"/>
+    </row>
+    <row r="63" spans="23:39" x14ac:dyDescent="0.25">
+      <c r="W63" s="5">
+        <v>4</v>
+      </c>
+      <c r="X63" s="3">
+        <v>2.5905950000000002E-4</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>4.7149969999999997E-4</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>2.867589E-4</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>1.9626270000000001E-2</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>6.2186610000000003E-2</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>6.9934999999999997E-2</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0.2077774</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0.20138</v>
+      </c>
+      <c r="AG63" s="5"/>
+    </row>
+    <row r="64" spans="23:39" x14ac:dyDescent="0.25">
+      <c r="W64" s="5">
+        <v>8</v>
+      </c>
+      <c r="X64" s="3">
+        <v>9.616464E-5</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>1.1868770000000001E-4</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>1.00133E-4</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>1.4748570000000001E-2</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>1.2430620000000001E-3</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>2.5565859999999999E-2</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0.12260790000000001</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0.11324679999999999</v>
+      </c>
+      <c r="AH64" s="5"/>
+    </row>
+    <row r="65" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="W65" s="5">
+        <v>16</v>
+      </c>
+      <c r="X65" s="3">
+        <v>2.7554949999999999E-4</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>2.1439979999999999E-4</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>2.5440940000000001E-4</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>1.4485120000000001E-2</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>4.4423530000000001E-4</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>1.378625E-2</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>9.4020480000000003E-2</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>7.6158589999999998E-2</v>
+      </c>
+      <c r="AH65" s="5"/>
+    </row>
+    <row r="66" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="W66" s="5">
+        <v>32</v>
+      </c>
+      <c r="X66" s="3">
+        <v>9.534694E-4</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>7.1067359999999998E-4</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>6.458983E-4</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>2.0018749999999998E-2</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>1.3391080000000001E-3</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>1.3236309999999999E-2</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>4.290033E-2</v>
+      </c>
+      <c r="AE66" s="3">
+        <v>3.7257070000000003E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="W67" s="5">
+        <v>64</v>
+      </c>
+      <c r="X67" s="3">
+        <v>4.0115510000000004E-3</v>
+      </c>
+      <c r="Y67" s="3">
+        <v>2.8862789999999998E-3</v>
+      </c>
+      <c r="Z67" s="3">
+        <v>2.9637050000000001E-3</v>
+      </c>
+      <c r="AA67" s="3">
+        <v>1.8175210000000001E-2</v>
+      </c>
+      <c r="AB67" s="3">
+        <v>2.2920330000000002E-3</v>
+      </c>
+      <c r="AC67" s="3">
+        <v>1.2212600000000001E-2</v>
+      </c>
+      <c r="AD67" s="3">
+        <v>3.908383E-2</v>
+      </c>
+      <c r="AE67" s="3">
+        <v>2.2296900000000001E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="W68" s="5">
+        <v>128</v>
+      </c>
+      <c r="X68" s="3">
+        <v>1.6480680000000001E-2</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>1.179915E-2</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>1.195673E-2</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>2.2482619999999998E-2</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>8.6006899999999994E-3</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>2.062168E-2</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>4.4634350000000003E-2</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>2.5712120000000002E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="W69" s="5">
+        <v>256</v>
+      </c>
+      <c r="X69" s="3">
+        <v>5.8292549999999999E-2</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>4.1522620000000003E-2</v>
+      </c>
+      <c r="Z69" s="3">
+        <v>4.188161E-2</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>4.1828709999999998E-2</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>2.5711899999999999E-2</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>3.0993090000000001E-2</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>5.6597349999999998E-2</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>3.1674689999999998E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="W70" s="5">
+        <v>512</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0.19265979999999999</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0.12057950000000001</v>
+      </c>
+      <c r="Z70" s="3">
+        <v>0.12389699999999999</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0.10389080000000001</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>8.1032430000000003E-2</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>7.6056139999999994E-2</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>9.192496E-2</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>5.8943790000000003E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="W71" s="5">
+        <v>1024</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0.81514140000000002</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0.47556670000000001</v>
+      </c>
+      <c r="Z71" s="3">
+        <v>0.48274289999999997</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0.36829889999999998</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0.31005090000000002</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0.21905430000000001</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0.25671179999999999</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0.14738770000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="23:34" x14ac:dyDescent="0.25">
+      <c r="W72" s="5">
+        <v>2048</v>
+      </c>
+      <c r="X72" s="3">
+        <v>3.4733100000000001</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>2.028448</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>2.0541700000000001</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>1.5122789999999999</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>1.260308</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>0.80405459999999995</v>
+      </c>
+      <c r="AD72" s="3">
+        <v>0.83525680000000002</v>
+      </c>
+      <c r="AE72" s="3">
+        <v>0.51070269999999995</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C33:G33"/>
-    <mergeCell ref="J33:N33"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
+  <mergeCells count="22">
+    <mergeCell ref="W59:AE59"/>
+    <mergeCell ref="X60:AE60"/>
+    <mergeCell ref="X61:Y61"/>
+    <mergeCell ref="Z61:AA61"/>
+    <mergeCell ref="AB61:AC61"/>
+    <mergeCell ref="AD61:AE61"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:N1"/>
     <mergeCell ref="B18:G18"/>
@@ -12024,6 +14398,11 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="J17:Q17"/>
     <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="J33:N33"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
